--- a/src/images/ModeleS6Jury.xlsx
+++ b/src/images/ModeleS6Jury.xlsx
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t xml:space="preserve">BUT 2 INFORMATIQUE</t>
   </si>
   <si>
-    <t xml:space="preserve">SEMESTRE 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023 -2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURY DU </t>
+    <t xml:space="preserve">SEMESTRE 6</t>
   </si>
   <si>
     <t xml:space="preserve">Compétences BUT 1</t>
@@ -91,22 +85,13 @@
     <t xml:space="preserve">Moy</t>
   </si>
   <si>
-    <t xml:space="preserve">BIN31BIN41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIN32BIN42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIN33BIN43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIN34BIN44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIN35BIN45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIN36BIN46</t>
+    <t xml:space="preserve">BIN51BIN61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIN55BIN65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIN56BIN66</t>
   </si>
   <si>
     <t xml:space="preserve">Décision</t>
@@ -309,13 +294,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AG35"/>
+  <dimension ref="A2:AD8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC9" activeCellId="0" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.64"/>
@@ -323,43 +308,38 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="8" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="27" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="7" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="27" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="3"/>
-      <c r="K5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -368,7 +348,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -376,7 +356,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -384,126 +364,113 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4" t="s">
-        <v>8</v>
+      <c r="AD7" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="M8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="N8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="AA8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="8" t="s">
+      <c r="AB8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="8" t="s">
+      <c r="AC8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="8" t="s">
+      <c r="AD8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG8" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G7:M7"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="Z7:AF7"/>
+    <mergeCell ref="Z7:AC7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/images/ModeleS6Jury.xlsx
+++ b/src/images/ModeleS6Jury.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t xml:space="preserve">BUT 2 INFORMATIQUE</t>
   </si>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">BIN51BIN61</t>
   </si>
   <si>
-    <t xml:space="preserve">BIN55BIN65</t>
+    <t xml:space="preserve">BIN52BIN62</t>
   </si>
   <si>
     <t xml:space="preserve">BIN56BIN66</t>
@@ -294,10 +294,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AD8"/>
+  <dimension ref="A2:AA8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC9" activeCellId="0" sqref="AC9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V21" activeCellId="0" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -308,9 +308,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="7" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="27" style="0" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="7" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,16 +360,13 @@
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="W7" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4" t="s">
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -437,31 +434,22 @@
       <c r="U8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="8" t="s">
-        <v>16</v>
+      <c r="V8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AD8" s="10" t="s">
+      <c r="AA8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -469,8 +457,8 @@
   <mergeCells count="4">
     <mergeCell ref="G7:M7"/>
     <mergeCell ref="N7:S7"/>
-    <mergeCell ref="T7:Y7"/>
-    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Z7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
